--- a/Powershell/Document_Templates/dhcp_stuff.xlsx
+++ b/Powershell/Document_Templates/dhcp_stuff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bryank12gaus-my.sharepoint.com/personal/cvincent_bryan_k12_ga_us/Documents/Documents/GitHub/Book-of-Spells/Powershell/Document_Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B7D1C7-EA3E-4182-BA47-4D95E48177D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{49B7D1C7-EA3E-4182-BA47-4D95E48177D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D09FBEB8-2D7F-4176-BB50-39BE47762244}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="10965" activeTab="5" xr2:uid="{4C7F77E3-E145-47A3-866D-C1132586033D}"/>
+    <workbookView xWindow="12495" yWindow="0" windowWidth="12810" windowHeight="15135" firstSheet="4" activeTab="6" xr2:uid="{4C7F77E3-E145-47A3-866D-C1132586033D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hosts" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Scopes" sheetId="6" r:id="rId4"/>
     <sheet name="Reachable" sheetId="1" r:id="rId5"/>
     <sheet name="Unreachable" sheetId="2" r:id="rId6"/>
+    <sheet name="Leases" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>HostName</t>
   </si>
@@ -71,6 +72,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>AddressState</t>
   </si>
 </sst>
 </file>
@@ -615,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64276C65-5F22-4B1F-83B0-626A2FF96B43}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -640,4 +644,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABECCB5-E1F8-48D8-BBC0-9455DAA28EB2}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>